--- a/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzb.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -197,19 +197,22 @@
     <t>Electricity Price</t>
   </si>
   <si>
-    <t>Wien-2016 , 10h</t>
-  </si>
-  <si>
-    <t>Wien-2016 , 20f + 35.05h</t>
-  </si>
-  <si>
-    <t>Wien-2016 , 0h</t>
-  </si>
-  <si>
-    <t>Wien-2016, 1000000h</t>
-  </si>
-  <si>
-    <t>Wien-2016,100h</t>
+    <t>Linz-2017</t>
+  </si>
+  <si>
+    <t>Linz-2016</t>
+  </si>
+  <si>
+    <t>LZ-2017</t>
+  </si>
+  <si>
+    <t>LZB-1</t>
+  </si>
+  <si>
+    <t>LZB-2</t>
+  </si>
+  <si>
+    <t>LZB-3</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>0.64</v>
@@ -747,7 +750,7 @@
         <v>42</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -785,7 +788,7 @@
         <v>42</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -823,7 +826,7 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0.4</v>
@@ -861,7 +864,7 @@
         <v>42</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -899,7 +902,7 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0.61</v>
@@ -937,7 +940,7 @@
         <v>43</v>
       </c>
       <c r="D8">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0.95</v>
@@ -975,7 +978,7 @@
         <v>43</v>
       </c>
       <c r="D9">
-        <v>323</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0.95</v>
@@ -1260,7 +1263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1304,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>60</v>
@@ -1453,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,19 +1495,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzb.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzb.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
-    <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Heat Storage" sheetId="4" r:id="rId4"/>
-    <sheet name="Energy Carrier" sheetId="5" r:id="rId5"/>
-    <sheet name="Default - External Data" sheetId="6" r:id="rId6"/>
+    <sheet name="emmision factors" sheetId="2" r:id="rId2"/>
+    <sheet name="energy carrier prices" sheetId="7" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Heat Storage" sheetId="4" r:id="rId5"/>
+    <sheet name="Energy Carrier" sheetId="5" r:id="rId6"/>
+    <sheet name="Default - External Data" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -197,22 +198,22 @@
     <t>Electricity Price</t>
   </si>
   <si>
-    <t>Linz-2017</t>
-  </si>
-  <si>
-    <t>Linz-2016</t>
-  </si>
-  <si>
-    <t>LZ-2017</t>
-  </si>
-  <si>
-    <t>LZB-1</t>
-  </si>
-  <si>
-    <t>LZB-2</t>
-  </si>
-  <si>
-    <t>LZB-3</t>
+    <t>Linz#2016</t>
+  </si>
+  <si>
+    <t>Linz#2017</t>
+  </si>
+  <si>
+    <t>LZ#2017</t>
+  </si>
+  <si>
+    <t>LZB#1</t>
+  </si>
+  <si>
+    <t>LZB#2</t>
+  </si>
+  <si>
+    <t>LZB#3</t>
   </si>
 </sst>
 </file>
@@ -1012,26 +1013,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1041,22 +1044,19 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1064,13 +1064,10 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>62</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1078,13 +1075,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1092,13 +1086,10 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1106,13 +1097,10 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1120,13 +1108,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1134,13 +1119,10 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1150,11 +1132,8 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1164,11 +1143,8 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1178,11 +1154,8 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1190,13 +1163,10 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1204,9 +1174,6 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
         <v>0</v>
       </c>
     </row>
@@ -1217,11 +1184,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1259,7 +1402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1341,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1456,12 +1599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1515,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
@@ -1535,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -1555,13 +1698,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>

--- a/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzb.xlsx
+++ b/app/modules/common/FEAT/F16/linz_ag/scenarios/scenario_lzb.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Linz#2016</t>
-  </si>
-  <si>
-    <t>Linz#2017</t>
   </si>
   <si>
     <t>LZ#2017</t>
@@ -1013,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,15 +1023,24 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1044,8 +1050,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.94</v>
+      </c>
+      <c r="E2">
+        <v>0.09</v>
+      </c>
+      <c r="F2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1055,8 +1070,17 @@
       <c r="C3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.08</v>
+      </c>
+      <c r="F3">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1066,8 +1090,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.13</v>
+      </c>
+      <c r="E4">
+        <v>0.45</v>
+      </c>
+      <c r="F4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1077,8 +1110,17 @@
       <c r="C5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.71</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1088,8 +1130,17 @@
       <c r="C6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="F6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1099,8 +1150,17 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.43</v>
+      </c>
+      <c r="E7">
+        <v>0.12</v>
+      </c>
+      <c r="F7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1110,8 +1170,17 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.67</v>
+      </c>
+      <c r="E8">
+        <v>0.69</v>
+      </c>
+      <c r="F8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1121,8 +1190,17 @@
       <c r="C9">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.76</v>
+      </c>
+      <c r="E9">
+        <v>0.43</v>
+      </c>
+      <c r="F9">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1132,8 +1210,17 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.46</v>
+      </c>
+      <c r="E10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1143,8 +1230,17 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.41</v>
+      </c>
+      <c r="E11">
+        <v>0.19</v>
+      </c>
+      <c r="F11">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1154,8 +1250,17 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.38</v>
+      </c>
+      <c r="E12">
+        <v>0.85</v>
+      </c>
+      <c r="F12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1165,8 +1270,17 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.91</v>
+      </c>
+      <c r="E13">
+        <v>0.89</v>
+      </c>
+      <c r="F13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1175,6 +1289,15 @@
       </c>
       <c r="C14">
         <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.67</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1184,28 +1307,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1215,8 +1347,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1224,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1234,8 +1375,17 @@
       <c r="C4">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1245,8 +1395,17 @@
       <c r="C5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1256,8 +1415,17 @@
       <c r="C6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1267,8 +1435,17 @@
       <c r="C7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1278,8 +1455,17 @@
       <c r="C8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1289,8 +1475,17 @@
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1300,8 +1495,17 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>87</v>
+      </c>
+      <c r="F10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1311,8 +1515,17 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1322,8 +1535,17 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1333,8 +1555,17 @@
       <c r="C13">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1343,6 +1574,15 @@
       </c>
       <c r="C14">
         <v>0</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>86</v>
+      </c>
+      <c r="F14">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1352,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,6 +1637,57 @@
         <v>1200000</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>900000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1407,7 +1698,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1895,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,13 +1935,13 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,13 +1955,13 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,13 +1975,13 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,13 +1995,13 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
